--- a/src/resources/files/client_list.xlsb.xlsx
+++ b/src/resources/files/client_list.xlsb.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t xml:space="preserve">client_id</t>
   </si>
@@ -43,6 +43,12 @@
     <t xml:space="preserve">client_logo</t>
   </si>
   <si>
+    <t xml:space="preserve">client_start_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client_end_date</t>
+  </si>
+  <si>
     <t xml:space="preserve">PowerSchool (Formerly SunGuard)</t>
   </si>
   <si>
@@ -61,6 +67,12 @@
     <t xml:space="preserve">power-school-logo</t>
   </si>
   <si>
+    <t xml:space="preserve">2016-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">PointIt</t>
   </si>
   <si>
@@ -76,12 +88,21 @@
     <t xml:space="preserve">null</t>
   </si>
   <si>
+    <t xml:space="preserve">2015-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">8x8</t>
   </si>
   <si>
     <t xml:space="preserve">A Marketo and Salesforce client of Eagle Creek that required the creation of multiple regional workspaces for North America and the United Kingdom. Configuartion for multiple regions and brands marketing and sales pipelines for leads.</t>
   </si>
   <si>
+    <t xml:space="preserve">2015-02-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">HCA</t>
   </si>
   <si>
@@ -94,6 +115,9 @@
     <t xml:space="preserve">hca_healthcare_logo</t>
   </si>
   <si>
+    <t xml:space="preserve">2016-02-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liverail</t>
   </si>
   <si>
@@ -103,6 +127,9 @@
     <t xml:space="preserve">Web Development, Marketing, Javascript, Marketo</t>
   </si>
   <si>
+    <t xml:space="preserve">2015-06-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lifetouch</t>
   </si>
   <si>
@@ -112,6 +139,12 @@
     <t xml:space="preserve">SQL Server, MS Visual Studio, ASP.NET, C#</t>
   </si>
   <si>
+    <t xml:space="preserve">2016-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-06-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skona</t>
   </si>
   <si>
@@ -121,6 +154,12 @@
     <t xml:space="preserve">Web Development, Marketing, HTML, SEO, Marketo</t>
   </si>
   <si>
+    <t xml:space="preserve">2014-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-06-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">State of Arizona - EPS</t>
   </si>
   <si>
@@ -133,6 +172,12 @@
     <t xml:space="preserve">state_of_arizona</t>
   </si>
   <si>
+    <t xml:space="preserve">2016-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-04-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">State of Arizona - DPS</t>
   </si>
   <si>
@@ -142,6 +187,12 @@
     <t xml:space="preserve">Web Development, HTML, Javascript, jQuery, CSS, SCSS, Drupal, PHP, Twig Templates, VSCode, Git/GitHub</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eagle Creek an Atos Company</t>
   </si>
   <si>
@@ -152,6 +203,12 @@
   </si>
   <si>
     <t xml:space="preserve">Web Development, HTML, Javascript, jQuery, CSS, VB.Net, C#.Net, ASP.Net, Entity Framework, LINQ, SQL, T-SQL, MySQL, Oracle, Jira, AWS, React, Angular, JSP,  VisualForce Pages, ColdFusion, Git/GitHub, PHP, Java Servlets, RESTful Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-01</t>
   </si>
   <si>
     <t xml:space="preserve">Eagle Creek is a Minnesota based U.S. technology and management consulting company that  developed the industry’s first U.S. Onshore model as an alternative to offshore. With this employer I was the lead Marketo expert that would provide Marketo Administration support, build custom templated Marketing Lifecycle programs and Salesforce integration. Custom integration with client sites through Marketo Munchkin code and capmaigns. Automated email campaigns, progressive forms for whitepapers and even video editing and YouTube account administration.</t>
@@ -164,8 +221,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -240,16 +298,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -265,301 +335,481 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="73.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="73.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="100.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="100.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>17</v>
+      <c r="H12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/files/client_list.xlsb.xlsx
+++ b/src/resources/files/client_list.xlsb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="203">
   <si>
     <t xml:space="preserve">client_id</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">client_end_date</t>
   </si>
   <si>
+    <t xml:space="preserve">client_primary_technology</t>
+  </si>
+  <si>
     <t xml:space="preserve">PowerSchool (Formerly SunGuard)</t>
   </si>
   <si>
@@ -61,7 +64,7 @@
     <t xml:space="preserve">A C#.Net client of Eagle Creek that primary responsibility was to develop, enhance, and maintain the core functionality of their IEPPLUS 5 product. This entailed updating the application and modifying the layout and UI in T4 templated in .Net. It also included modifying and updating multiple Cristal Reports and batch jobs.</t>
   </si>
   <si>
-    <t xml:space="preserve">SQL Server, MS Visual Studio, Web Development, ASP.NET, C#, Crystal Reports, UI Templates, Team Foundation Server, HTML</t>
+    <t xml:space="preserve">SQL Server, MS Visual Studio, Web Development, ASP.NET, C#, Crystal Reports, UI Templates, Team Foundation Server, HTML, Jira</t>
   </si>
   <si>
     <t xml:space="preserve">power-school-logo</t>
@@ -73,6 +76,9 @@
     <t xml:space="preserve">2017-08-01</t>
   </si>
   <si>
+    <t xml:space="preserve">.Net</t>
+  </si>
+  <si>
     <t xml:space="preserve">PointIt</t>
   </si>
   <si>
@@ -85,7 +91,7 @@
     <t xml:space="preserve">Web Development, Marketing, HTML, SEO, Marketo, Salesforce</t>
   </si>
   <si>
-    <t xml:space="preserve">null</t>
+    <t xml:space="preserve">pointit_logo</t>
   </si>
   <si>
     <t xml:space="preserve">2015-04-01</t>
@@ -94,10 +100,16 @@
     <t xml:space="preserve">2017-05-01</t>
   </si>
   <si>
+    <t xml:space="preserve">Marketo</t>
+  </si>
+  <si>
     <t xml:space="preserve">8x8</t>
   </si>
   <si>
-    <t xml:space="preserve">A Marketo and Salesforce client of Eagle Creek that required the creation of multiple regional workspaces for North America and the United Kingdom. Configuartion for multiple regions and brands marketing and sales pipelines for leads.</t>
+    <t xml:space="preserve">A Marketo and Salesforce client of Eagle Creek that required the creation of multiple regional workspaces for North America and the United Kingdom. Configuration for multiple regions and brands marketing and sales pipelines for leads.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x8_logo</t>
   </si>
   <si>
     <t xml:space="preserve">2015-02-01</t>
@@ -109,7 +121,7 @@
     <t xml:space="preserve">A Salesforce client of Eagle Creek that wanted to create a custom VisualForce site for their InnovationLink initiative. Utilizing VisualForce frontend and Apex backend we were able to create an HTML5 featured site with custom image cropping, dynamic YouTube video embedding and custom drop down menus for a custom experience for multiple user tiers.</t>
   </si>
   <si>
-    <t xml:space="preserve">Web Development, Salesforce, VisualForce, Apex, HTML, Javascript, jQuery, LESS, CSS, Eclipse</t>
+    <t xml:space="preserve">Web Development, Salesforce, VisualForce, Apex, HTML, JavaScript, jQuery, LESS, CSS, Eclipse</t>
   </si>
   <si>
     <t xml:space="preserve">hca_healthcare_logo</t>
@@ -118,6 +130,9 @@
     <t xml:space="preserve">2016-02-01</t>
   </si>
   <si>
+    <t xml:space="preserve">Salesforce</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liverail</t>
   </si>
   <si>
@@ -127,6 +142,9 @@
     <t xml:space="preserve">Web Development, Marketing, Javascript, Marketo</t>
   </si>
   <si>
+    <t xml:space="preserve">liverail_logo</t>
+  </si>
+  <si>
     <t xml:space="preserve">2015-06-01</t>
   </si>
   <si>
@@ -136,7 +154,10 @@
     <t xml:space="preserve">A .Net client of Eagle Creek that needed an Asset Publisher a C# WCF to connect to local image storage using a PhotoManager service classes to get/post images that was exposed to AJAX and a FamilyManager service classes to get/post XML data sets.</t>
   </si>
   <si>
-    <t xml:space="preserve">SQL Server, MS Visual Studio, ASP.NET, C#</t>
+    <t xml:space="preserve">SQL Server, MS Visual Studio, ASP.NET, C#, SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifetouch2</t>
   </si>
   <si>
     <t xml:space="preserve">2016-05-01</t>
@@ -154,6 +175,9 @@
     <t xml:space="preserve">Web Development, Marketing, HTML, SEO, Marketo</t>
   </si>
   <si>
+    <t xml:space="preserve">skona_logo</t>
+  </si>
+  <si>
     <t xml:space="preserve">2014-05-01</t>
   </si>
   <si>
@@ -166,7 +190,7 @@
     <t xml:space="preserve">The State of Arizona Enterprise Procurement Services was a Drupal/PHP client that required on demand excel spreadsheets of CES, LAUS, &amp; QCEW tables that I provided a responsive UI with dynamic drop downs and modal spinner during data retrieval while the PHP backend retrieved the data and processed the excel download.</t>
   </si>
   <si>
-    <t xml:space="preserve">Web Development, HTML, Javascript, jQuery, CSS, PHP, Eclipse</t>
+    <t xml:space="preserve">Web Development, HTML, JavaScript, jQuery, CSS, PHP, Eclipse</t>
   </si>
   <si>
     <t xml:space="preserve">state_of_arizona</t>
@@ -178,43 +202,517 @@
     <t xml:space="preserve">2016-04-01</t>
   </si>
   <si>
+    <t xml:space="preserve">Drupal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of Arizona – DES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The State of Arizona Department of Economic Security was a Drupal client of Eagle Creek that required a Drupal 7 to 9/10 site migration. This required duplicating all existing pages from the current Drupal 7 site and migrating all data and data structures to the new Drupal 9/10 site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Development, HTML, Javascript, jQuery, CSS, SCSS, Drupal, PHP, Twig Templates, VSCode, Google Docs, Git/GitHub, Pantheon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle Creek an Eviden Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle Creek is a Minnesota based U.S. technology and management consulting company that  developed the industry’s first U.S. Onshore model as an alternative to offshore. With this employer I served as a Frontend UI specialist developing custom responsive UIs in various platforms Marketo Emails and Landing Pages, Salesforce Visualforce pages, Drupal 6/7/9/10, VB &amp; C# .Net full stack developer including Angular and Reactjs Technologies as well and a Fullstack building services and store procedures and optimizing queries in SQL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Development, HTML, JavaScript, jQuery, CSS, VB.Net, C#.Net, ASP.Net, Entity Framework, LINQ, SQL, T-SQL, MySQL, Oracle, Jira, AWS, React, Angular, JSP,  VisualForce Pages, ColdFusion, Git/GitHub, PHP, Java Servlets, RESTful Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle-Creek-logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle Creek is a Minnesota based U.S. technology and management consulting company that  developed the industry’s first U.S. Onshore model as an alternative to offshore. With this employer I was the lead Marketo expert that would provide Marketo Administration support, build custom templated Marketing Lifecycle programs and Salesforce integration. Custom integration with client sites through Marketo Munchkin code and campaigns. Automated email campaigns, progressive forms for whitepapers and even video editing and YouTube account administration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketo, Salesforce, Web Development, HTML, JavaScript, jQuery, CSS, YouTube, Final Cut Pro, Adobe Illustrator CS6, Adobe Photoshop CS6, iMovie</t>
+  </si>
+  <si>
     <t xml:space="preserve">State of Arizona - DPS</t>
   </si>
   <si>
     <t xml:space="preserve">The State of Arizona Department of Public Safety Recruitment was a Drupal client of Eagle Creek that during a Drupal 7 to 9/10 migration required more custom UI enhancements that needed custom Javascript and CSS beyond the default theme </t>
   </si>
   <si>
-    <t xml:space="preserve">Web Development, HTML, Javascript, jQuery, CSS, SCSS, Drupal, PHP, Twig Templates, VSCode, Git/GitHub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eagle Creek an Atos Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eagle Creek is a Minnesota based U.S. technology and management consulting company that  developed the industry’s first U.S. Onshore model as an alternative to offshore. With this employer I served as a Frontend UI specialist devloping custom responisve UIs in various platforms Marketo Emails and Landing Pages, Salesforce Visualforce pages, Drupal 6/7/9/10, VB &amp; C# .Net full stack developer including Angular and Reactjs Technologies as well and a Fullstack building services and store procedures and optimizing queries in SQL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Development, HTML, Javascript, jQuery, CSS, VB.Net, C#.Net, ASP.Net, Entity Framework, LINQ, SQL, T-SQL, MySQL, Oracle, Jira, AWS, React, Angular, JSP,  VisualForce Pages, ColdFusion, Git/GitHub, PHP, Java Servlets, RESTful Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eagle Creek is a Minnesota based U.S. technology and management consulting company that  developed the industry’s first U.S. Onshore model as an alternative to offshore. With this employer I was the lead Marketo expert that would provide Marketo Administration support, build custom templated Marketing Lifecycle programs and Salesforce integration. Custom integration with client sites through Marketo Munchkin code and capmaigns. Automated email campaigns, progressive forms for whitepapers and even video editing and YouTube account administration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marketo, Salesforce, Web Development, HTML, Javascript, jQuery, CSS, YouTube, Final Cut Pro, Adobe Illustrator CS6, Adobe Photoshop CS6, iMovie</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Web Development, HTML, JavaScript, jQuery, CSS, SCSS, Drupal, PHP, Twig Templates, VSCode, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Google Docs, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Git/GitHub, Pantheon</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of Arizona – DOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The State of Arizona Department of Revenue was a Drupal client of Eagle Creek that required a Drupal 7 to 9/10 site migration. This required duplicating all existing pages from the current Drupal 7 site and migrating all data and data structures to the new Drupal 9/10 site.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Web Development, HTML, JavaScript, jQuery, CSS, SCSS, Drupal, PHP, Twig Templates, VSCode, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Google Docs,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Git/GitHub, Pantheon</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of Arizona – OAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The State of Arizona Office of the Attorney General was a Drupal client of Eagle Creek that required a Drupal 7 to 9/10 site migration. This required duplicating all existing pages from the current Drupal 7 site and migrating all data and data structures to the new Drupal 9/10 site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSL Solutions, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A .Net client of Eagle Creek that we updated and revised legacy code for readability and serviceability and resolved a back log of bugs and issues in their Jira ticketing system. Developed a new set of custom controls for their XAML application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sql Server, MS Visual Studio, Jira, ASP.Net, C#, JavaScript, HTML, CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bd_gsl_logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creative MediaWorks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A .Net client of Eagle Creek that was updating their SpeakCore application product for their clients. While implementing new features and updates that were unique to many client environments I also worked through Asana ticketing of bugs and issues raise by clients. Client facing for multiple clients and received employee of the quarter for my performance. &lt;br/&gt;&lt;br/&gt;“Dan has provided services to our company for almost two years, and I can't say enough about the job he has done for us. He has been a great contributor for us and is a vital member of our team. He has a positive, up-beat personality, and everyone from our team has enjoyed working with him. He's a very talented developer and has done a great job with completing tickets for our platform. He's been interfacing directly with clients in our ticketing system and has done an excellent job communicating with them regarding questions he has and in answering their questions. Dan is a great addition to any team, and I highly recommend him.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Server, MS Visual Studio, Web Development, ASP.NET, C#, Team Foundation Server, HTML, CSS, SQL, Asana, JavaScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creative_mediaworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KinderCare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KinderCare was a web application client for their OneCMS and Champions projects with Eagle Creek. These projects utilized AngularJS with .Net’s C# backend for their new extended day activity enrollments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AngularJS, C#.Net, Enity Framework, SQL, T-SQL, HTML, CSS, JavaScript, Jira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">champions-logo_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marchex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Marketo client that we established a Marketo, Salesforce and RingLead data sync to prevent duplicate leads and complications of returning leads being flagged. Developed of marketing programs and events. Developed Nurture campaign, lead scoring and lead lifecycle model for marketing funnel to sales in Salesforce. Created custom branded HTML asset templates for responsive landing pages and emails for reuse by client. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Development, Marketing, HTML, SEO, Marketo, Salesforce, RingLead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marchex_logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KinderCare initial startup of the Champions project that POC’d Angular and .Net in expansion beyond their Parent Portal application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinder_care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dealer Tire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A client of Eagle Creek that was behind schedule for UI development I was brought on to bring up to speed. Using LESS, Bootstrap, I was able to create the responsive UI and create custom JavaScript to integrate the Cold Fusion Templates with the existing site and complete the project on time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Development, HTML, JavaScript, jQuery, CSS, Less, Linux, Node.js, Cold Fusion, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dealer_tire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasasa (formerly BancVue)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BancVue, now Kasasa, was a Marketo client of Eagle Creek that had multiple Marketo workspaces for their clients with more than a dozen banks transitioning to the Kasasa rewards branding for Kasasa: K360 and InControl Checking. Branded emails, landing pages were setup for each financial institutions’ workspace to automate email campaigns to target customers and convert them to the new rewards programs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Development, Marketing, HTML, SEO, Marketo, Jira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kasasa_logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Career Arc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Marketo client that we created 4 different tokenized emails with 1 having A/B/C testing variants for 6 total emails to use in their automated email campaigns. Then setup the campaigns and added the token fields and trained the new admin to setup and edit the fields.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">careerarc_logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cipher Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Marketo client that needed responsive landing pages created with their own branding and progressive forms. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ciphercloud_logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evolv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Marketo client that needed help integrating their own website with Marketo munchkin code to capture page visits and form submissions outside of landing pages on the Marketo platform.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evolv_logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaspersky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Marketo client that requested custom responsive email templates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaspersky_logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A long time Marketo client that Eagle Creek setup the Marketing lifecycle and automated email campaigns for each white paper and event for 2014 into 2015 until helping them migrate to HubSpot in March of 2015. HTML development for asset templates for emails and landing pages. Custom JavaScript and jQuery for site enhancements not native to Marketo at the time. On24 Webinar integration as well as updating their On24 emails with custom HTML over the plain text automated outbound emails. Edited image and videos for presentations that was then uploaded to a YouTube account created for Natera was also performed until a media content manager was added onto their team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Development, Marketing, HTML, SEO, Marketo, Creative Suit 6, Adobe Illustrator, Adobe Photoshop, On24, jQuery, JavaScript, iMovie, Final Cut Pro, YouTube.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natera_logo_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Marketo client that had created a new instance in Marketo that needed to combine the old and new instances into a single domain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nexenta_logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnitude Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A marketo client that had 3 subscriptions for Noetix, Kalido, and Magnitude brands. Imported programs across the subscriptions to consolidate into a single instance using workspaces for the brands to manage them. Updated HTML and JavaScript used in landing pages and emails for better UX and email client compatibility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magnitude_logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLI Systems</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A repeat Marketo client of Eagle Creek that required </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DemandBase integration for client for Marketo and Saleforce instances. Also did </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HTML work for responsive emails and landing page templates built off their provided Catapult Works designs and later design updates. Created TDD and step by step user guides for editing template assets.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">slisystems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sauce Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Marketo and Salesforce client of Eagle Creek that required dashboards/reporting in Salesforce based on both the “referrer-Lead source” and the “asset/event-Campaign” that any leads or contacts with an opportunity role were a part of. This information is to be used to document Marketing-Sources-Pipeline and the Opportunity Influence of Marketing’s programs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saucelabs_logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBM Advanstar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Salesforce and Marketo client. Created a POC and the TDD for Salesforce/Marketo integration for Event emailing. Developed email scripting data retrieval for Custom Objects from Salesforce for emails.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanstar-Logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A long time client of Eagle Creek. A project that was going to be UI enhancements to address issues with UX tickets created by customers. A .Net appication that utilized Vue.js, GraphQL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Server, MS Visual Studio, ASP.NET, C#, VueJS, GraphQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andover_companies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benchmark Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line assembly: laser power supplies, IBM Server packaging and shipping, communications devices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">benchmark_logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Buy Geek Squad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full-time Advanced Repair Agent. Gold certified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geek_squad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShopKo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics retail sales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shopko_logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GameStop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video game sales. Keyholder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamestop_logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Buy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retail sales. Media, Home Theater, Appliances, Computers, Cellular, Ops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bby_logo_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wendy’s Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wendys_logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Open Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teen volunteer, team lead &amp; keyholder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k_villages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyan Point Condominiums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Squarespace site for a condominium HOA. Assisted in rebuilding links, creating/editing and uploading assets to site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Development, HTML, Squarespace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyan_logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squarespace</t>
   </si>
 </sst>
 </file>
@@ -225,7 +723,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -253,6 +751,26 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="aptos Narrow"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -298,7 +816,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -321,6 +839,22 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -446,15 +980,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="73.55"/>
@@ -462,6 +996,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,34 +1027,40 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,28 +1068,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,28 +1100,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,28 +1132,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,28 +1164,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,28 +1196,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,28 +1228,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,57 +1260,63 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,28 +1324,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,28 +1356,935 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="H13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="1" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="195.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>62</v>
+      <c r="B22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/files/client_list.xlsb.xlsx
+++ b/src/resources/files/client_list.xlsb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="204">
   <si>
     <t xml:space="preserve">client_id</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">client_primary_technology</t>
   </si>
   <si>
+    <t xml:space="preserve">client_of</t>
+  </si>
+  <si>
     <t xml:space="preserve">PowerSchool (Formerly SunGuard)</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t xml:space="preserve">.Net</t>
   </si>
   <si>
+    <t xml:space="preserve">Eagle Creek an Eviden Business</t>
+  </si>
+  <si>
     <t xml:space="preserve">PointIt</t>
   </si>
   <si>
@@ -218,9 +224,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eagle Creek an Eviden Business</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -363,7 +366,7 @@
     <t xml:space="preserve">Creative MediaWorks</t>
   </si>
   <si>
-    <t xml:space="preserve">A .Net client of Eagle Creek that was updating their SpeakCore application product for their clients. While implementing new features and updates that were unique to many client environments I also worked through Asana ticketing of bugs and issues raise by clients. Client facing for multiple clients and received employee of the quarter for my performance. &lt;br/&gt;&lt;br/&gt;“Dan has provided services to our company for almost two years, and I can't say enough about the job he has done for us. He has been a great contributor for us and is a vital member of our team. He has a positive, up-beat personality, and everyone from our team has enjoyed working with him. He's a very talented developer and has done a great job with completing tickets for our platform. He's been interfacing directly with clients in our ticketing system and has done an excellent job communicating with them regarding questions he has and in answering their questions. Dan is a great addition to any team, and I highly recommend him.”</t>
+    <t xml:space="preserve">A .Net client of Eagle Creek that was updating their SpeakCore application product for their clients. While implementing new features and updates that were unique to many client environments I also worked through Asana ticketing of bugs and issues raise by clients. Client facing for multiple clients and received employee of the first quarter in 2021 for my performance. &lt;br/&gt;&lt;br/&gt;“Dan has provided services to our company for almost two years, and I can't say enough about the job he has done for us. He has been a great contributor for us and is a vital member of our team. He has a positive, up-beat personality, and everyone from our team has enjoyed working with him. He's a very talented developer and has done a great job with completing tickets for our platform. He's been interfacing directly with clients in our ticketing system and has done an excellent job communicating with them regarding questions he has and in answering their questions. Dan is a great addition to any team, and I highly recommend him.”</t>
   </si>
   <si>
     <t xml:space="preserve">SQL Server, MS Visual Studio, Web Development, ASP.NET, C#, Team Foundation Server, HTML, CSS, SQL, Asana, JavaScript</t>
@@ -682,7 +685,7 @@
     <t xml:space="preserve">Fast Food</t>
   </si>
   <si>
-    <t xml:space="preserve">The Open Table</t>
+    <t xml:space="preserve">The Open Table – 10,000 Villages</t>
   </si>
   <si>
     <t xml:space="preserve">Teen volunteer, team lead &amp; keyholder.</t>
@@ -706,7 +709,7 @@
     <t xml:space="preserve">Web Development, HTML, Squarespace</t>
   </si>
   <si>
-    <t xml:space="preserve">Banyan_logo</t>
+    <t xml:space="preserve">banyan_point_logo_2</t>
   </si>
   <si>
     <t xml:space="preserve">2025-09-01</t>
@@ -980,10 +983,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -997,6 +1000,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,37 +1034,43 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,31 +1078,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1100,31 +1113,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>26</v>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,31 +1148,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,31 +1183,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1196,31 +1218,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,31 +1253,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,31 +1288,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1292,31 +1323,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>60</v>
+      <c r="K10" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1324,31 +1358,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,31 +1390,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,31 +1422,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,31 +1457,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,31 +1492,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,31 +1527,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="195.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,31 +1562,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,31 +1597,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,31 +1632,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,31 +1667,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,31 +1702,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,31 +1737,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,31 +1772,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,31 +1807,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,31 +1842,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,31 +1877,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,31 +1912,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,31 +1947,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1900,31 +1982,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1932,31 +2017,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="I30" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,31 +2052,34 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,31 +2087,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,31 +2122,34 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,28 +2157,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2089,28 +2186,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,28 +2215,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2147,28 +2244,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="J37" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,28 +2273,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="J38" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,28 +2302,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="J39" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,28 +2331,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,28 +2360,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/files/client_list.xlsb.xlsx
+++ b/src/resources/files/client_list.xlsb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="219">
   <si>
     <t xml:space="preserve">client_id</t>
   </si>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">client_of</t>
   </si>
   <si>
+    <t xml:space="preserve">background_image</t>
+  </si>
+  <si>
     <t xml:space="preserve">PowerSchool (Formerly SunGuard)</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t xml:space="preserve">2015-02-01</t>
   </si>
   <si>
+    <t xml:space="preserve">8X8_Marketo_Admin.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">HCA</t>
   </si>
   <si>
@@ -139,6 +145,9 @@
     <t xml:space="preserve">Salesforce</t>
   </si>
   <si>
+    <t xml:space="preserve">HCA_InnovationHome_Chevron_and_Dropdowns.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liverail</t>
   </si>
   <si>
@@ -211,6 +220,9 @@
     <t xml:space="preserve">Drupal</t>
   </si>
   <si>
+    <t xml:space="preserve">AZ_EPS_excel_download.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">State of Arizona – DES</t>
   </si>
   <si>
@@ -245,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">Application Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle_Creek_Employees.png</t>
   </si>
   <si>
     <t xml:space="preserve">Eagle Creek is a Minnesota based U.S. technology and management consulting company that  developed the industry’s first U.S. Onshore model as an alternative to offshore. With this employer I was the lead Marketo expert that would provide Marketo Administration support, build custom templated Marketing Lifecycle programs and Salesforce integration. Custom integration with client sites through Marketo Munchkin code and campaigns. Automated email campaigns, progressive forms for whitepapers and even video editing and YouTube account administration.</t>
@@ -381,6 +396,9 @@
     <t xml:space="preserve">2021-05-01</t>
   </si>
   <si>
+    <t xml:space="preserve">Creative_MediaWorks_SpeakCore.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">KinderCare</t>
   </si>
   <si>
@@ -396,6 +414,9 @@
     <t xml:space="preserve">2017-10-01</t>
   </si>
   <si>
+    <t xml:space="preserve">Champions_Before_and_After_School_Programs.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marchex</t>
   </si>
   <si>
@@ -408,6 +429,9 @@
     <t xml:space="preserve">marchex_logo</t>
   </si>
   <si>
+    <t xml:space="preserve">marchex_bia_kelsey.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">KinderCare initial startup of the Champions project that POC’d Angular and .Net in expansion beyond their Parent Portal application.</t>
   </si>
   <si>
@@ -417,6 +441,9 @@
     <t xml:space="preserve">2016-09-01</t>
   </si>
   <si>
+    <t xml:space="preserve">CMS-30855_Before.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dealer Tire</t>
   </si>
   <si>
@@ -435,6 +462,9 @@
     <t xml:space="preserve">Java</t>
   </si>
   <si>
+    <t xml:space="preserve">dealer_tire_tread_input.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kasasa (formerly BancVue)</t>
   </si>
   <si>
@@ -447,6 +477,9 @@
     <t xml:space="preserve">kasasa_logo</t>
   </si>
   <si>
+    <t xml:space="preserve">Bankvue_Go_Live_Results_Marketing_Activities.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Career Arc</t>
   </si>
   <si>
@@ -471,6 +504,9 @@
     <t xml:space="preserve">2014-08-01</t>
   </si>
   <si>
+    <t xml:space="preserve">CipherCloud_Landing_Page.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Evolv</t>
   </si>
   <si>
@@ -492,7 +528,7 @@
     <t xml:space="preserve">Natera</t>
   </si>
   <si>
-    <t xml:space="preserve">A long time Marketo client that Eagle Creek setup the Marketing lifecycle and automated email campaigns for each white paper and event for 2014 into 2015 until helping them migrate to HubSpot in March of 2015. HTML development for asset templates for emails and landing pages. Custom JavaScript and jQuery for site enhancements not native to Marketo at the time. On24 Webinar integration as well as updating their On24 emails with custom HTML over the plain text automated outbound emails. Edited image and videos for presentations that was then uploaded to a YouTube account created for Natera was also performed until a media content manager was added onto their team.</t>
+    <t xml:space="preserve">A long time Marketo client that Eagle Creek setup the Marketing lifecycle and automated email campaigns for their Horizon, Anora, Panorama &amp; Spectrum brands. Setting up their registrations and progressive forms for their white papers and events until helping them migrate to HubSpot in March of 2015. HTML development for asset templates for emails and landing pages. Custom JavaScript and jQuery for site enhancements not native to Marketo at the time. On24 Webinar integration as well as updating their On24 emails with custom HTML over the plain text automated outbound emails. Edited image and videos for presentations that was then uploaded to a YouTube account created for Natera was also performed until a media content manager was added onto their team.</t>
   </si>
   <si>
     <t xml:space="preserve">Web Development, Marketing, HTML, SEO, Marketo, Creative Suit 6, Adobe Illustrator, Adobe Photoshop, On24, jQuery, JavaScript, iMovie, Final Cut Pro, YouTube.</t>
@@ -507,6 +543,9 @@
     <t xml:space="preserve">2015-03-01</t>
   </si>
   <si>
+    <t xml:space="preserve">Natera_Panorama_YouTube.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nexenta</t>
   </si>
   <si>
@@ -526,6 +565,9 @@
   </si>
   <si>
     <t xml:space="preserve">2014-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnitude_functioning_logic.png</t>
   </si>
   <si>
     <t xml:space="preserve">SLI Systems</t>
@@ -563,6 +605,9 @@
   </si>
   <si>
     <t xml:space="preserve">slisystems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLI_Direct Mailer_ 2015_MM_-_BZ.png</t>
   </si>
   <si>
     <t xml:space="preserve">Sauce Labs</t>
@@ -983,10 +1028,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1001,6 +1046,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="46.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1037,40 +1083,43 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,34 +1127,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,34 +1162,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,34 +1200,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,34 +1238,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,34 +1273,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1253,34 +1308,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,34 +1343,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,34 +1381,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1358,31 +1416,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,31 +1451,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,34 +1486,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,34 +1521,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,34 +1556,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,34 +1591,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="195.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,34 +1626,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1597,34 +1664,37 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="J18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1632,34 +1702,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,34 +1740,37 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,34 +1778,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,34 +1816,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,34 +1854,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1807,34 +1889,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1842,34 +1927,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,69 +1962,72 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,34 +2035,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,34 +2070,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,34 +2108,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,34 +2146,34 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2087,34 +2181,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2122,34 +2216,34 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2157,28 +2251,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2186,28 +2280,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2215,28 +2309,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2244,28 +2338,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2273,28 +2367,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2302,28 +2396,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,28 +2425,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2360,28 +2454,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/files/client_list.xlsb.xlsx
+++ b/src/resources/files/client_list.xlsb.xlsx
@@ -607,7 +607,7 @@
     <t xml:space="preserve">slisystems</t>
   </si>
   <si>
-    <t xml:space="preserve">SLI_Direct Mailer_ 2015_MM_-_BZ.png</t>
+    <t xml:space="preserve">SLI_Direct_Mailer_2015_MM_BZ.png</t>
   </si>
   <si>
     <t xml:space="preserve">Sauce Labs</t>
@@ -1030,8 +1030,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/resources/files/client_list.xlsb.xlsx
+++ b/src/resources/files/client_list.xlsb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="226">
   <si>
     <t xml:space="preserve">client_id</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">background_image</t>
   </si>
   <si>
+    <t xml:space="preserve">client_feedback</t>
+  </si>
+  <si>
     <t xml:space="preserve">PowerSchool (Formerly SunGuard)</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t xml:space="preserve">Marketo</t>
   </si>
   <si>
+    <t xml:space="preserve">“Dan has been such a huge help to our team. His expertise helps us fill in the gaps and makes our email programs run smoothly.” - Madeline @ Point It</t>
+  </si>
+  <si>
     <t xml:space="preserve">8x8</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
     <t xml:space="preserve">2014-06-01</t>
   </si>
   <si>
+    <t xml:space="preserve">skona_apigee_email_template.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">State of Arizona - EPS</t>
   </si>
   <si>
@@ -259,13 +268,22 @@
     <t xml:space="preserve">Application Development</t>
   </si>
   <si>
-    <t xml:space="preserve">Eagle_Creek_Employees.png</t>
+    <t xml:space="preserve">Eagle_Creek_Employees.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Dan is a multi-tasker who demonstrates the ability to write code, mentor others, converse with the client and help the team when required. Dan understands the technical side of the application he is working on and can provide various roles when asked.  Although Dan has a good grasp of the technologies he continuously demonstrates the desire to learn more expanding his skills. Moreover, Dan expresses a willingness to collaborate with others and is motivated to complete the task at hand regardless of his time commitment.” -Jeff B @ Eagle Creek</t>
   </si>
   <si>
     <t xml:space="preserve">Eagle Creek is a Minnesota based U.S. technology and management consulting company that  developed the industry’s first U.S. Onshore model as an alternative to offshore. With this employer I was the lead Marketo expert that would provide Marketo Administration support, build custom templated Marketing Lifecycle programs and Salesforce integration. Custom integration with client sites through Marketo Munchkin code and campaigns. Automated email campaigns, progressive forms for whitepapers and even video editing and YouTube account administration.</t>
   </si>
   <si>
     <t xml:space="preserve">Marketo, Salesforce, Web Development, HTML, JavaScript, jQuery, CSS, YouTube, Final Cut Pro, Adobe Illustrator CS6, Adobe Photoshop CS6, iMovie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle_Creek_Employees_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Dan is reliable both with attendance and providing effective services for his clients. Dan is motivated to complete the task at hand meeting deadlines regardless of the time commitment while achieving the quality standards necessary to be successful. Moreover, Dan organizes his tasks on projects, communicates the deliverable expectations and anticipates potential blockers in which he proactively tackles. Most importantly, Dan is a self starter requiring little guidance and oversight with a keen knack knowing when to escalate issues.” - Jeff B @ Eagle Creek</t>
   </si>
   <si>
     <t xml:space="preserve">State of Arizona - DPS</t>
@@ -397,6 +415,9 @@
   </si>
   <si>
     <t xml:space="preserve">Creative_MediaWorks_SpeakCore.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Dan has provided services to our company for almost two years, and I can't say enough about the job he has done for us. He has been a great contributor for us and is a vital member of our team. He has a positive, up-beat personality, and everyone from our team has enjoyed working with him. He's a very talented developer and has done a great job with completing tickets for our platform. He's been interfacing directly with clients in our ticketing system and has done an excellent job communicating with them regarding questions he has and in answering their questions. Dan is a great addition to any team, and I highly recommend him.” - Ryan @ Creative Media Works</t>
   </si>
   <si>
     <t xml:space="preserve">KinderCare</t>
@@ -864,7 +885,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -887,6 +908,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1028,10 +1053,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1047,6 +1072,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="46.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="60.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,40 +1112,43 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1127,34 +1156,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,37 +1194,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,37 +1232,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1238,34 +1270,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,34 +1305,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1308,34 +1340,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,37 +1378,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,104 +1416,110 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="L12" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,34 +1527,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,34 +1562,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1556,34 +1597,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,34 +1632,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="195.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,37 +1667,40 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>102</v>
+        <v>15</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,37 +1708,37 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="J18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,37 +1746,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>115</v>
+        <v>24</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,37 +1784,37 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>109</v>
+        <v>125</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1778,37 +1822,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,37 +1860,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>131</v>
+        <v>137</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,34 +1898,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>55</v>
+        <v>142</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1889,37 +1933,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>55</v>
+        <v>145</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,34 +1971,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>55</v>
+        <v>151</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1962,34 +2006,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="I26" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,37 +2041,37 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>151</v>
+        <v>157</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,34 +2079,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>55</v>
+        <v>164</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,37 +2114,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>55</v>
+        <v>167</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2108,37 +2152,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>25</v>
+        <v>172</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2146,34 +2190,34 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,34 +2225,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>25</v>
+        <v>179</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,34 +2260,34 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,28 +2295,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,28 +2324,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,28 +2353,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2338,28 +2382,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,28 +2411,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,28 +2440,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,28 +2469,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,28 +2498,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/files/client_list.xlsb.xlsx
+++ b/src/resources/files/client_list.xlsb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="227">
   <si>
     <t xml:space="preserve">client_id</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">Marketo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PointIt_Marketo_screenshot.png</t>
   </si>
   <si>
     <t xml:space="preserve">“Dan has been such a huge help to our team. His expertise helps us fill in the gaps and makes our email programs run smoothly.” - Madeline @ Point It</t>
@@ -399,7 +402,7 @@
     <t xml:space="preserve">Creative MediaWorks</t>
   </si>
   <si>
-    <t xml:space="preserve">A .Net client of Eagle Creek that was updating their SpeakCore application product for their clients. While implementing new features and updates that were unique to many client environments I also worked through Asana ticketing of bugs and issues raise by clients. Client facing for multiple clients and received employee of the first quarter in 2021 for my performance. &lt;br/&gt;&lt;br/&gt;“Dan has provided services to our company for almost two years, and I can't say enough about the job he has done for us. He has been a great contributor for us and is a vital member of our team. He has a positive, up-beat personality, and everyone from our team has enjoyed working with him. He's a very talented developer and has done a great job with completing tickets for our platform. He's been interfacing directly with clients in our ticketing system and has done an excellent job communicating with them regarding questions he has and in answering their questions. Dan is a great addition to any team, and I highly recommend him.”</t>
+    <t xml:space="preserve">A .Net client of Eagle Creek that was updating their SpeakCore application product for their clients. While implementing new features and updates that were unique to many client environments I also worked through Asana ticketing of bugs and issues raise by clients. Client facing for multiple clients and received employee of the first quarter in 2021 for my performance.</t>
   </si>
   <si>
     <t xml:space="preserve">SQL Server, MS Visual Studio, Web Development, ASP.NET, C#, Team Foundation Server, HTML, CSS, SQL, Asana, JavaScript</t>
@@ -1055,8 +1058,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1185,8 +1188,11 @@
       <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="L3" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="M3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -1203,16 +1209,16 @@
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>28</v>
@@ -1224,7 +1230,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -1241,28 +1247,28 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,7 +1276,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -1279,19 +1285,19 @@
         <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>30</v>
@@ -1305,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -1314,19 +1320,19 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>21</v>
@@ -1340,7 +1346,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -1349,19 +1355,19 @@
         <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>30</v>
@@ -1370,7 +1376,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,7 +1384,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -1387,28 +1393,28 @@
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -1425,22 +1431,22 @@
         <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>22</v>
@@ -1454,34 +1460,34 @@
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,34 +1498,34 @@
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,7 +1533,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1536,22 +1542,22 @@
         <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>22</v>
@@ -1562,7 +1568,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1571,22 +1577,22 @@
         <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>22</v>
@@ -1597,7 +1603,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -1606,22 +1612,22 @@
         <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>22</v>
@@ -1632,7 +1638,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -1641,19 +1647,19 @@
         <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>21</v>
@@ -1662,12 +1668,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="195.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1676,19 +1682,19 @@
         <v>15</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>21</v>
@@ -1697,10 +1703,10 @@
         <v>22</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,7 +1714,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1717,19 +1723,19 @@
         <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>21</v>
@@ -1738,7 +1744,7 @@
         <v>22</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,7 +1752,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
@@ -1755,16 +1761,16 @@
         <v>24</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>29</v>
@@ -1776,7 +1782,7 @@
         <v>22</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1784,7 +1790,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -1793,16 +1799,16 @@
         <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -1814,7 +1820,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,7 +1828,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
@@ -1831,28 +1837,28 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,7 +1866,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
@@ -1869,19 +1875,19 @@
         <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>30</v>
@@ -1890,7 +1896,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,7 +1904,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>14</v>
@@ -1907,19 +1913,19 @@
         <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>30</v>
@@ -1933,7 +1939,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>14</v>
@@ -1942,19 +1948,19 @@
         <v>24</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>30</v>
@@ -1963,7 +1969,7 @@
         <v>22</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,7 +1977,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>14</v>
@@ -1980,19 +1986,19 @@
         <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>30</v>
@@ -2006,7 +2012,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>14</v>
@@ -2015,19 +2021,19 @@
         <v>24</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>30</v>
@@ -2041,7 +2047,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>14</v>
@@ -2050,19 +2056,19 @@
         <v>24</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>30</v>
@@ -2071,7 +2077,7 @@
         <v>22</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,7 +2085,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>14</v>
@@ -2088,19 +2094,19 @@
         <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>30</v>
@@ -2114,7 +2120,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>14</v>
@@ -2123,19 +2129,19 @@
         <v>24</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>30</v>
@@ -2144,7 +2150,7 @@
         <v>22</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,7 +2158,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>14</v>
@@ -2161,19 +2167,19 @@
         <v>24</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>30</v>
@@ -2182,7 +2188,7 @@
         <v>22</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,7 +2196,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>14</v>
@@ -2199,19 +2205,19 @@
         <v>24</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>30</v>
@@ -2225,7 +2231,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>14</v>
@@ -2234,16 +2240,16 @@
         <v>24</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>28</v>
@@ -2260,7 +2266,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>14</v>
@@ -2269,19 +2275,19 @@
         <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>21</v>
@@ -2295,28 +2301,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2324,28 +2330,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,28 +2359,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,28 +2388,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="J37" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,28 +2417,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="J38" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,28 +2446,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="J39" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2469,28 +2475,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,7 +2504,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>14</v>
@@ -2507,19 +2513,19 @@
         <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/files/client_list.xlsb.xlsx
+++ b/src/resources/files/client_list.xlsb.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Developer</t>
   </si>
   <si>
-    <t xml:space="preserve">A C#.Net client of Eagle Creek that primary responsibility was to develop, enhance, and maintain the core functionality of their IEPPLUS 5 product. This entailed updating the application and modifying the layout and UI in T4 templated in .Net. It also included modifying and updating multiple Cristal Reports and batch jobs.</t>
+    <t xml:space="preserve">A C#.Net client of Eagle Creek that primary responsibility was to develop, enhance, and maintain the core functionality of their IEPPLUS 5 product. This entailed updating the application and modifying the layout and UI in T4 templates in .Net. It also included modifying and updating multiple Cristal Reports and batch jobs.</t>
   </si>
   <si>
     <t xml:space="preserve">SQL Server, MS Visual Studio, Web Development, ASP.NET, C#, Crystal Reports, UI Templates, Team Foundation Server, HTML, Jira</t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">Enlisted Eagle Creek's Marketo expertise in their setting up a new Marketo instance and trouble shooting their forms not working. An education on the changes from Forms 1.0 to Form 2.0 implementation and finding munchkin code using old Marketo's instance 9 digit ID rather than the new instance's ID.</t>
   </si>
   <si>
-    <t xml:space="preserve">Web Development, Marketing, Javascript, Marketo</t>
+    <t xml:space="preserve">Web Development, Marketing, JavaScript, Marketo</t>
   </si>
   <si>
     <t xml:space="preserve">liverail_logo</t>
@@ -214,7 +214,7 @@
     <t xml:space="preserve">State of Arizona - EPS</t>
   </si>
   <si>
-    <t xml:space="preserve">The State of Arizona Enterprise Procurement Services was a Drupal/PHP client that required on demand excel spreadsheets of CES, LAUS, &amp; QCEW tables that I provided a responsive UI with dynamic drop downs and modal spinner during data retrieval while the PHP backend retrieved the data and processed the excel download.</t>
+    <t xml:space="preserve">The State of Arizona Enterprise Procurement Services was a Drupal/PHP client that required on demand excel spreadsheets of CES, LAUS, &amp; QCEW tables that I provided a responsive UI with dynamic drop downs and modal spinner during data retrieval while the PHP back-end retrieved the data and processed the excel download.</t>
   </si>
   <si>
     <t xml:space="preserve">Web Development, HTML, JavaScript, jQuery, CSS, PHP, Eclipse</t>
@@ -253,7 +253,7 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Eagle Creek is a Minnesota based U.S. technology and management consulting company that  developed the industry’s first U.S. Onshore model as an alternative to offshore. With this employer I served as a Frontend UI specialist developing custom responsive UIs in various platforms Marketo Emails and Landing Pages, Salesforce Visualforce pages, Drupal 6/7/9/10, VB &amp; C# .Net full stack developer including Angular and Reactjs Technologies as well and a Fullstack building services and store procedures and optimizing queries in SQL.</t>
+    <t xml:space="preserve">Eagle Creek is a Minnesota based U.S. technology and management consulting company that  developed the industry’s first U.S. Onshore model as an alternative to offshore. With this employer I served as a Front-end UI specialist developing custom responsive UI’s in various platforms Marketo Emails and Landing Pages, Salesforce VisualForce pages, Drupal 6/7/9/10, VB &amp; C# .Net full stack developer including Angular and Reactjs Technologies as well and a Full-stack building services and store procedures and optimizing queries in SQL.</t>
   </si>
   <si>
     <t xml:space="preserve">Web Development, HTML, JavaScript, jQuery, CSS, VB.Net, C#.Net, ASP.Net, Entity Framework, LINQ, SQL, T-SQL, MySQL, Oracle, Jira, AWS, React, Angular, JSP,  VisualForce Pages, ColdFusion, Git/GitHub, PHP, Java Servlets, RESTful Services</t>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">“Dan is a multi-tasker who demonstrates the ability to write code, mentor others, converse with the client and help the team when required. Dan understands the technical side of the application he is working on and can provide various roles when asked.  Although Dan has a good grasp of the technologies he continuously demonstrates the desire to learn more expanding his skills. Moreover, Dan expresses a willingness to collaborate with others and is motivated to complete the task at hand regardless of his time commitment.” -Jeff B @ Eagle Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Eagle Creek is a Minnesota based U.S. technology and management consulting company that  developed the industry’s first U.S. Onshore model as an alternative to offshore. With this employer I was the lead Marketo expert that would provide Marketo Administration support, build custom templated Marketing Lifecycle programs and Salesforce integration. Custom integration with client sites through Marketo Munchkin code and campaigns. Automated email campaigns, progressive forms for whitepapers and even video editing and YouTube account administration.</t>
+    <t xml:space="preserve">Eagle Creek is a Minnesota based U.S. technology and management consulting company that  developed the industry’s first U.S. Onshore model as an alternative to offshore. With this employer I was the lead Marketo expert that would provide Marketo Administration support, build custom templated Marketing Lifecycle programs and Salesforce integration. Custom integration with client sites through Marketo Munchkin code and campaigns. Automated email campaigns, progressive forms for white papers and even video editing and YouTube account administration.</t>
   </si>
   <si>
     <t xml:space="preserve">Marketo, Salesforce, Web Development, HTML, JavaScript, jQuery, CSS, YouTube, Final Cut Pro, Adobe Illustrator CS6, Adobe Photoshop CS6, iMovie</t>
@@ -292,7 +292,7 @@
     <t xml:space="preserve">State of Arizona - DPS</t>
   </si>
   <si>
-    <t xml:space="preserve">The State of Arizona Department of Public Safety Recruitment was a Drupal client of Eagle Creek that during a Drupal 7 to 9/10 migration required more custom UI enhancements that needed custom Javascript and CSS beyond the default theme </t>
+    <t xml:space="preserve">The State of Arizona Department of Public Safety Recruitment was a Drupal client of Eagle Creek that during a Drupal 7 to 9/10 migration required more custom UI enhancements that needed custom JavaScript and CSS beyond the default theme </t>
   </si>
   <si>
     <r>
@@ -614,7 +614,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">DemandBase integration for client for Marketo and Saleforce instances. Also did </t>
+      <t xml:space="preserve">DemandBase integration for client for Marketo and Salesforce instances. Also did </t>
     </r>
     <r>
       <rPr>
@@ -658,7 +658,7 @@
     <t xml:space="preserve">Andover</t>
   </si>
   <si>
-    <t xml:space="preserve">A long time client of Eagle Creek. A project that was going to be UI enhancements to address issues with UX tickets created by customers. A .Net appication that utilized Vue.js, GraphQL.</t>
+    <t xml:space="preserve">A long time client of Eagle Creek. A project that was going to be UI enhancements to address issues with UX tickets created by customers. A .Net application that utilized Vue.js, GraphQL.</t>
   </si>
   <si>
     <t xml:space="preserve">SQL Server, MS Visual Studio, ASP.NET, C#, VueJS, GraphQL</t>
@@ -718,7 +718,7 @@
     <t xml:space="preserve">GameStop</t>
   </si>
   <si>
-    <t xml:space="preserve">Video game sales. Keyholder.</t>
+    <t xml:space="preserve">Video game sales. Key holder.</t>
   </si>
   <si>
     <t xml:space="preserve">gamestop_logo</t>
@@ -757,7 +757,7 @@
     <t xml:space="preserve">The Open Table – 10,000 Villages</t>
   </si>
   <si>
-    <t xml:space="preserve">Teen volunteer, team lead &amp; keyholder.</t>
+    <t xml:space="preserve">Teen volunteer, team lead &amp; key holder.</t>
   </si>
   <si>
     <t xml:space="preserve">10k_villages</t>
@@ -1058,8 +1058,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/resources/files/client_list.xlsb.xlsx
+++ b/src/resources/files/client_list.xlsb.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Portfolio\src\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F5E05D-6893-4195-AA90-371FEFC414EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5CBBCC-2C69-4468-97DC-A9389DA3933F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="231">
   <si>
     <t>client_id</t>
   </si>
@@ -774,9 +775,6 @@
     <t>Banyan Point Condominiums</t>
   </si>
   <si>
-    <t>A Squarespace site for a condominium HOA. Assisted in rebuilding links, creating/editing and uploading assets to site.</t>
-  </si>
-  <si>
     <t>Web Development, HTML, Squarespace</t>
   </si>
   <si>
@@ -790,6 +788,21 @@
   </si>
   <si>
     <t>The State of Arizona Office of the Auditor General was a Drupal client of Eagle Creek that required a Drupal 7 to 9/10 site migration. This required duplicating all existing pages from the current Drupal 7 site and migrating all data and data structures to the new Drupal 9/10 site.</t>
+  </si>
+  <si>
+    <t>A Squarespace site for a condominium HOA. Assisted in rebuilding links, creating/editing and uploading assets to their Squarespace site. Providing general technical support with PDF and Microsoft Office products.</t>
+  </si>
+  <si>
+    <t>Upwork &amp; Fiverr</t>
+  </si>
+  <si>
+    <t>Freelance</t>
+  </si>
+  <si>
+    <t>Freelance work from Marketing Automation integration support to Full-stack Code Reviews and optimizations and Security Audits.</t>
+  </si>
+  <si>
+    <t>Freelance Work</t>
   </si>
 </sst>
 </file>
@@ -853,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -870,6 +883,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,7 +1567,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>91</v>
@@ -2440,7 +2454,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2454,19 +2468,45 @@
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" t="s">
         <v>222</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>223</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>224</v>
       </c>
-      <c r="J41" t="s">
-        <v>225</v>
+    </row>
+    <row r="42" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="8">
+        <v>45931</v>
+      </c>
+      <c r="J42" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/files/client_list.xlsb.xlsx
+++ b/src/resources/files/client_list.xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Portfolio\src\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5CBBCC-2C69-4468-97DC-A9389DA3933F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0A382E-D59F-4C6B-8BF7-BE2A2E2BA632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="233">
   <si>
     <t>client_id</t>
   </si>
@@ -803,6 +803,12 @@
   </si>
   <si>
     <t>Freelance Work</t>
+  </si>
+  <si>
+    <t>logo192</t>
+  </si>
+  <si>
+    <t>2025-10-01</t>
   </si>
 </sst>
 </file>
@@ -883,7 +889,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1013,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="E29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2502,8 +2508,11 @@
       <c r="F42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H42" s="8">
-        <v>45931</v>
+      <c r="G42" t="s">
+        <v>231</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="J42" t="s">
         <v>230</v>
